--- a/02_MasterWifoMannheim/99_Backup/Course68.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course68.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_2B59D2BFD3D0DB4B639A20115900003449BDFDC0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAC48633-95D5-4108-9838-1C38FA490272}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D05905DB9B36115920F87558D3FE05" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{760701B9-EE0E-4F7D-B89D-66024D61FC1E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,12 @@
     <t>Prerequisites</t>
   </si>
   <si>
+    <t>Benötigte Kurse</t>
+  </si>
+  <si>
+    <t>FIN 540</t>
+  </si>
+  <si>
     <t>Obligatory registration</t>
   </si>
   <si>
@@ -82,7 +88,7 @@
     <t>Offering</t>
   </si>
   <si>
-    <t>Fall semester</t>
+    <t>FWS</t>
   </si>
   <si>
     <t>Language</t>
@@ -106,13 +112,7 @@
     <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
   </si>
   <si>
-    <t>Benötigte Kurse</t>
-  </si>
-  <si>
-    <t>FIN 540</t>
-  </si>
-  <si>
-    <t>and Insurance (FIN), Accounting and Taxation (AAT), Mathematical and Statistical Foundations (MSF)</t>
+    <t>and Insurance (FIN), Accounting and Taxation (AAT), Mathematical and Statistical Foundations (MSF), FIN 540</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,97 +526,97 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
